--- a/data/pca/factorExposure/factorExposure_2009-03-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01736387398100025</v>
+        <v>-0.01686093246789661</v>
       </c>
       <c r="C2">
-        <v>-0.002201541056832989</v>
+        <v>0.001631854850316185</v>
       </c>
       <c r="D2">
-        <v>0.008000332614381225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008494452877086103</v>
+      </c>
+      <c r="E2">
+        <v>0.0002000049532011828</v>
+      </c>
+      <c r="F2">
+        <v>-0.01943329004252226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08398798290577561</v>
+        <v>-0.08735911616180153</v>
       </c>
       <c r="C4">
-        <v>-0.01960262367125034</v>
+        <v>0.01568251662294917</v>
       </c>
       <c r="D4">
-        <v>0.0856327454156298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08745417800803527</v>
+      </c>
+      <c r="E4">
+        <v>0.03776541137397038</v>
+      </c>
+      <c r="F4">
+        <v>0.04193313358427796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.0006221456174964454</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.920179975430016e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0003237380452626167</v>
+      </c>
+      <c r="E5">
+        <v>-9.283277386441823e-05</v>
+      </c>
+      <c r="F5">
+        <v>1.08871356884075e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1608404326206436</v>
+        <v>-0.1665052303094672</v>
       </c>
       <c r="C6">
-        <v>-0.03705290555738797</v>
+        <v>0.03489881182414846</v>
       </c>
       <c r="D6">
-        <v>-0.02018696030619538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01167908732227869</v>
+      </c>
+      <c r="E6">
+        <v>0.02803992332029753</v>
+      </c>
+      <c r="F6">
+        <v>0.05164193076536028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05509366563112122</v>
+        <v>-0.05981659537585619</v>
       </c>
       <c r="C7">
-        <v>-0.001441789645025367</v>
+        <v>-0.001350270686722376</v>
       </c>
       <c r="D7">
-        <v>0.05204462452000135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05690165813011151</v>
+      </c>
+      <c r="E7">
+        <v>0.001783015475126475</v>
+      </c>
+      <c r="F7">
+        <v>0.05797345560735144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05756089134140251</v>
+        <v>-0.05461492375364012</v>
       </c>
       <c r="C8">
-        <v>0.009805018410486664</v>
+        <v>-0.01125075695728685</v>
       </c>
       <c r="D8">
-        <v>0.03151774051065013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03340637903291618</v>
+      </c>
+      <c r="E8">
+        <v>0.001494915183778556</v>
+      </c>
+      <c r="F8">
+        <v>-0.03376540632815238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06483017467862</v>
+        <v>-0.06814735163180122</v>
       </c>
       <c r="C9">
-        <v>-0.01514760734734994</v>
+        <v>0.01132612166607442</v>
       </c>
       <c r="D9">
-        <v>0.08929964596743592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09141312094029155</v>
+      </c>
+      <c r="E9">
+        <v>0.03539178512929481</v>
+      </c>
+      <c r="F9">
+        <v>0.06042151873703123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09497452949698557</v>
+        <v>-0.09157925438187881</v>
       </c>
       <c r="C10">
-        <v>-0.02326137188253678</v>
+        <v>0.02474741538141483</v>
       </c>
       <c r="D10">
-        <v>-0.1639432493098038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1535985231308686</v>
+      </c>
+      <c r="E10">
+        <v>-0.04497508957805495</v>
+      </c>
+      <c r="F10">
+        <v>-0.07033903253873199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0862297939644458</v>
+        <v>-0.08402137099277349</v>
       </c>
       <c r="C11">
-        <v>-0.01702177206417743</v>
+        <v>0.01234816773690967</v>
       </c>
       <c r="D11">
-        <v>0.1345242645305728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1350644646450564</v>
+      </c>
+      <c r="E11">
+        <v>0.03684657179898045</v>
+      </c>
+      <c r="F11">
+        <v>0.01743211427762856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09114208954517766</v>
+        <v>-0.08683659887031413</v>
       </c>
       <c r="C12">
-        <v>-0.01497776508475484</v>
+        <v>0.009744710058446611</v>
       </c>
       <c r="D12">
-        <v>0.1408542344186511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1489832658917948</v>
+      </c>
+      <c r="E12">
+        <v>0.03432482767659494</v>
+      </c>
+      <c r="F12">
+        <v>0.02106890799467137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04311176028367927</v>
+        <v>-0.04383707431540702</v>
       </c>
       <c r="C13">
-        <v>-0.007681164374744848</v>
+        <v>0.004025874321605855</v>
       </c>
       <c r="D13">
-        <v>0.05082336850629245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05929704815427185</v>
+      </c>
+      <c r="E13">
+        <v>-0.009468030372307173</v>
+      </c>
+      <c r="F13">
+        <v>0.01506498291979646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01936089312715131</v>
+        <v>-0.0221942552422059</v>
       </c>
       <c r="C14">
-        <v>-0.01495561530763938</v>
+        <v>0.01393148773243463</v>
       </c>
       <c r="D14">
-        <v>0.03926746285919185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04182785136155216</v>
+      </c>
+      <c r="E14">
+        <v>0.021824481259763</v>
+      </c>
+      <c r="F14">
+        <v>0.02274942332337591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03291356849372244</v>
+        <v>-0.0340665930106098</v>
       </c>
       <c r="C15">
-        <v>-0.008232974268668286</v>
+        <v>0.006676698091733074</v>
       </c>
       <c r="D15">
-        <v>0.0544818047549154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05377558689706773</v>
+      </c>
+      <c r="E15">
+        <v>0.01413825342711785</v>
+      </c>
+      <c r="F15">
+        <v>0.02681391329386716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06681399730875943</v>
+        <v>-0.06648254034326441</v>
       </c>
       <c r="C16">
-        <v>-0.005566395760489683</v>
+        <v>0.001081465403711212</v>
       </c>
       <c r="D16">
-        <v>0.1349436615143184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1423366022815814</v>
+      </c>
+      <c r="E16">
+        <v>0.04938934722103983</v>
+      </c>
+      <c r="F16">
+        <v>0.01765236772545303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002584554950685411</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.00113036606078836</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002552084657947602</v>
+      </c>
+      <c r="E17">
+        <v>0.005096088478381128</v>
+      </c>
+      <c r="F17">
+        <v>-0.00507230423280511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03014691639701066</v>
+        <v>-0.04666456307310834</v>
       </c>
       <c r="C18">
-        <v>0.000274878299384155</v>
+        <v>0.0001592765116368663</v>
       </c>
       <c r="D18">
-        <v>0.02695798175348915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02530943159947831</v>
+      </c>
+      <c r="E18">
+        <v>-0.01390252374191852</v>
+      </c>
+      <c r="F18">
+        <v>-0.01265645437305147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06180716301966555</v>
+        <v>-0.0612961417710643</v>
       </c>
       <c r="C20">
-        <v>-0.004984275794064931</v>
+        <v>0.002306190944747757</v>
       </c>
       <c r="D20">
-        <v>0.09064897065380803</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0916251943696938</v>
+      </c>
+      <c r="E20">
+        <v>0.05752297062295082</v>
+      </c>
+      <c r="F20">
+        <v>0.03201694654669566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0392379735179464</v>
+        <v>-0.04169908107963296</v>
       </c>
       <c r="C21">
-        <v>-0.00988589125946124</v>
+        <v>0.007445088023244447</v>
       </c>
       <c r="D21">
-        <v>0.04523094248316273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0442291012054345</v>
+      </c>
+      <c r="E21">
+        <v>-0.01103197440687746</v>
+      </c>
+      <c r="F21">
+        <v>-0.01076470763555057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04552443239632753</v>
+        <v>-0.0445532940959358</v>
       </c>
       <c r="C22">
-        <v>-0.004493969965138118</v>
+        <v>0.002536764635806711</v>
       </c>
       <c r="D22">
-        <v>0.006338973853160385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01661079009891542</v>
+      </c>
+      <c r="E22">
+        <v>0.03008811840610368</v>
+      </c>
+      <c r="F22">
+        <v>-0.1098878974847855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04553327420477119</v>
+        <v>-0.04456082488147328</v>
       </c>
       <c r="C23">
-        <v>-0.004496370395556749</v>
+        <v>0.002538993882442238</v>
       </c>
       <c r="D23">
-        <v>0.006330775320462523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0166044525409589</v>
+      </c>
+      <c r="E23">
+        <v>0.03009565858926073</v>
+      </c>
+      <c r="F23">
+        <v>-0.1099312085252306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07514836651736458</v>
+        <v>-0.07351816435582403</v>
       </c>
       <c r="C24">
-        <v>-0.00670410908447346</v>
+        <v>0.002370296144121382</v>
       </c>
       <c r="D24">
-        <v>0.1373439591053913</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1364876644411432</v>
+      </c>
+      <c r="E24">
+        <v>0.0308324410703391</v>
+      </c>
+      <c r="F24">
+        <v>0.02948677694388475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08047269379462471</v>
+        <v>-0.0783058030539643</v>
       </c>
       <c r="C25">
-        <v>-0.009369587703352857</v>
+        <v>0.005325551070529796</v>
       </c>
       <c r="D25">
-        <v>0.125580992838008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1250936110092242</v>
+      </c>
+      <c r="E25">
+        <v>0.01725532419768435</v>
+      </c>
+      <c r="F25">
+        <v>0.02839941990501189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0573899382955423</v>
+        <v>-0.06224288433624018</v>
       </c>
       <c r="C26">
-        <v>-0.01909975390246814</v>
+        <v>0.01636423247242273</v>
       </c>
       <c r="D26">
-        <v>0.06107769711500493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06521443601219352</v>
+      </c>
+      <c r="E26">
+        <v>0.01534264194933906</v>
+      </c>
+      <c r="F26">
+        <v>-0.006077597083546115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1533688430770511</v>
+        <v>-0.1577429169147197</v>
       </c>
       <c r="C28">
-        <v>-0.02799000824587134</v>
+        <v>0.03117562714650637</v>
       </c>
       <c r="D28">
-        <v>-0.2496243612764618</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2459550842712168</v>
+      </c>
+      <c r="E28">
+        <v>-0.0455535480905583</v>
+      </c>
+      <c r="F28">
+        <v>0.02203587143801058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02556170025967361</v>
+        <v>-0.02771078013040617</v>
       </c>
       <c r="C29">
-        <v>-0.009841697960550551</v>
+        <v>0.009219748689942258</v>
       </c>
       <c r="D29">
-        <v>0.03709117524268488</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03850748402810896</v>
+      </c>
+      <c r="E29">
+        <v>0.01012110625725946</v>
+      </c>
+      <c r="F29">
+        <v>-0.017267326081644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.050432689908394</v>
+        <v>-0.04991825689818687</v>
       </c>
       <c r="C30">
-        <v>-0.005677388905678327</v>
+        <v>0.002313474971514848</v>
       </c>
       <c r="D30">
-        <v>0.07759414985208019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08221776139320072</v>
+      </c>
+      <c r="E30">
+        <v>0.01280653209708864</v>
+      </c>
+      <c r="F30">
+        <v>0.1055155065234859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05096138218120191</v>
+        <v>-0.05164768366047173</v>
       </c>
       <c r="C31">
-        <v>-0.01888567695124061</v>
+        <v>0.01697923316447561</v>
       </c>
       <c r="D31">
-        <v>0.03308481759599808</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03387771786982857</v>
+      </c>
+      <c r="E31">
+        <v>0.02839323177286629</v>
+      </c>
+      <c r="F31">
+        <v>-0.01424086072457932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04428083594525073</v>
+        <v>-0.04977041169053326</v>
       </c>
       <c r="C32">
-        <v>-0.001515709782049198</v>
+        <v>-0.00119837226524216</v>
       </c>
       <c r="D32">
-        <v>0.03676071568167509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03983643635361607</v>
+      </c>
+      <c r="E32">
+        <v>0.02660464973021125</v>
+      </c>
+      <c r="F32">
+        <v>-0.003932902181498405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08521590800917789</v>
+        <v>-0.08715714573947281</v>
       </c>
       <c r="C33">
-        <v>-0.01339186183803946</v>
+        <v>0.008421146672474124</v>
       </c>
       <c r="D33">
-        <v>0.1071507841976701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1156805778708825</v>
+      </c>
+      <c r="E33">
+        <v>0.047042028127115</v>
+      </c>
+      <c r="F33">
+        <v>0.02379544079205128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06316539574481657</v>
+        <v>-0.06334818679508035</v>
       </c>
       <c r="C34">
-        <v>-0.01527180499470449</v>
+        <v>0.01068727613400197</v>
       </c>
       <c r="D34">
-        <v>0.1132214537936703</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1223198138989871</v>
+      </c>
+      <c r="E34">
+        <v>0.02027802982184701</v>
+      </c>
+      <c r="F34">
+        <v>0.04228390292813895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02668460106001197</v>
+        <v>-0.0280118379558653</v>
       </c>
       <c r="C35">
-        <v>-0.004987438247685531</v>
+        <v>0.00440051859413576</v>
       </c>
       <c r="D35">
-        <v>0.01216617507450274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01469528139290792</v>
+      </c>
+      <c r="E35">
+        <v>0.01842905804704254</v>
+      </c>
+      <c r="F35">
+        <v>-0.003919816735121293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02243759145911696</v>
+        <v>-0.02689629309364503</v>
       </c>
       <c r="C36">
-        <v>-0.008442346258466087</v>
+        <v>0.007610124339292178</v>
       </c>
       <c r="D36">
-        <v>0.04417829024240996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04675964563584429</v>
+      </c>
+      <c r="E36">
+        <v>0.02429038534254743</v>
+      </c>
+      <c r="F36">
+        <v>0.01982727387637366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003326872720056663</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008556203009533756</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003477603667426381</v>
+      </c>
+      <c r="E37">
+        <v>-0.0003598412027827692</v>
+      </c>
+      <c r="F37">
+        <v>-0.001341701995034624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09924682752749912</v>
+        <v>-0.09126433901612344</v>
       </c>
       <c r="C39">
-        <v>-0.02129320532674624</v>
+        <v>0.01574418995335488</v>
       </c>
       <c r="D39">
-        <v>0.1726269355602729</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1656277048537244</v>
+      </c>
+      <c r="E39">
+        <v>0.04486659489950452</v>
+      </c>
+      <c r="F39">
+        <v>0.008494387738057229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04413202515939036</v>
+        <v>-0.04946398685516905</v>
       </c>
       <c r="C40">
-        <v>-0.01214007321983564</v>
+        <v>0.01057397015067221</v>
       </c>
       <c r="D40">
-        <v>0.03983839661395369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04569708208574418</v>
+      </c>
+      <c r="E40">
+        <v>-0.01578153281347997</v>
+      </c>
+      <c r="F40">
+        <v>-0.01418102165009294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02676601462684151</v>
+        <v>-0.02878226310237242</v>
       </c>
       <c r="C41">
-        <v>-0.008429291819233884</v>
+        <v>0.007931650394089079</v>
       </c>
       <c r="D41">
-        <v>0.01772489937765723</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01844207228548872</v>
+      </c>
+      <c r="E41">
+        <v>0.001358913708387841</v>
+      </c>
+      <c r="F41">
+        <v>-0.01077477206088143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04078075599627728</v>
+        <v>-0.03992077517669122</v>
       </c>
       <c r="C43">
-        <v>-0.009047127293805621</v>
+        <v>0.008170966529771841</v>
       </c>
       <c r="D43">
-        <v>0.0309354109544562</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02950997860074888</v>
+      </c>
+      <c r="E43">
+        <v>0.01666106322367062</v>
+      </c>
+      <c r="F43">
+        <v>-0.02390773386264101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06037037909113098</v>
+        <v>-0.06858195651131652</v>
       </c>
       <c r="C44">
-        <v>-0.02199705548620326</v>
+        <v>0.01886511560179325</v>
       </c>
       <c r="D44">
-        <v>0.08012731094142932</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08864069036403473</v>
+      </c>
+      <c r="E44">
+        <v>0.09478153998351999</v>
+      </c>
+      <c r="F44">
+        <v>0.2088804188743031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0001826223596727638</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.625444223551825e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-3.208534153305803e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0005150290875782099</v>
+      </c>
+      <c r="F45">
+        <v>2.926905316995421e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02359577494410437</v>
+        <v>-0.02590489143431672</v>
       </c>
       <c r="C46">
-        <v>-0.004915626339821583</v>
+        <v>0.004182335664095565</v>
       </c>
       <c r="D46">
-        <v>0.02412643189014638</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0248993268339998</v>
+      </c>
+      <c r="E46">
+        <v>0.02386554384732386</v>
+      </c>
+      <c r="F46">
+        <v>-0.02513749253026344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05412487879036011</v>
+        <v>-0.05297360756737871</v>
       </c>
       <c r="C47">
-        <v>-0.007316792372889907</v>
+        <v>0.005595195387170009</v>
       </c>
       <c r="D47">
-        <v>0.01977607213694321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01991519682747583</v>
+      </c>
+      <c r="E47">
+        <v>0.01521949477842648</v>
+      </c>
+      <c r="F47">
+        <v>-0.04614201691300194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04907282253484148</v>
+        <v>-0.05288541638138743</v>
       </c>
       <c r="C48">
-        <v>-0.006427844886344999</v>
+        <v>0.004080289981054547</v>
       </c>
       <c r="D48">
-        <v>0.06313007852551275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06324230127499825</v>
+      </c>
+      <c r="E48">
+        <v>-0.005019767256516506</v>
+      </c>
+      <c r="F48">
+        <v>0.01854707963032361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1948364551316127</v>
+        <v>-0.1969707109933745</v>
       </c>
       <c r="C49">
-        <v>-0.0285913840764033</v>
+        <v>0.02459922070259637</v>
       </c>
       <c r="D49">
-        <v>-0.01114071749693416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005873954741630853</v>
+      </c>
+      <c r="E49">
+        <v>0.02309887797808159</v>
+      </c>
+      <c r="F49">
+        <v>0.05480008311743153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04954810857271179</v>
+        <v>-0.05235874906381397</v>
       </c>
       <c r="C50">
-        <v>-0.01457250624199801</v>
+        <v>0.01307403426513206</v>
       </c>
       <c r="D50">
-        <v>0.03286408975157863</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03361030606569972</v>
+      </c>
+      <c r="E50">
+        <v>0.02748421220722019</v>
+      </c>
+      <c r="F50">
+        <v>0.004226176766316525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1513970706285706</v>
+        <v>-0.1448721129100844</v>
       </c>
       <c r="C52">
-        <v>-0.02582502290133798</v>
+        <v>0.02180956241083503</v>
       </c>
       <c r="D52">
-        <v>0.04859607459864394</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04923914939897728</v>
+      </c>
+      <c r="E52">
+        <v>0.04645624428300166</v>
+      </c>
+      <c r="F52">
+        <v>0.0319772911410479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1751835247023835</v>
+        <v>-0.1675118657721388</v>
       </c>
       <c r="C53">
-        <v>-0.0289350181193125</v>
+        <v>0.02588543775598805</v>
       </c>
       <c r="D53">
-        <v>0.008564797940149188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.009731638126755976</v>
+      </c>
+      <c r="E53">
+        <v>0.07033041486621719</v>
+      </c>
+      <c r="F53">
+        <v>0.07537844868734613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01407554954864358</v>
+        <v>-0.01735267151578567</v>
       </c>
       <c r="C54">
-        <v>-0.01187639867249092</v>
+        <v>0.01111715873327992</v>
       </c>
       <c r="D54">
-        <v>0.03415910030793791</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03337560305304656</v>
+      </c>
+      <c r="E54">
+        <v>0.01340197975373976</v>
+      </c>
+      <c r="F54">
+        <v>-0.005338408418428915</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1200719641272377</v>
+        <v>-0.1174888926326363</v>
       </c>
       <c r="C55">
-        <v>-0.02507709000051873</v>
+        <v>0.02255870045238874</v>
       </c>
       <c r="D55">
-        <v>0.01227158538643955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01826036030370227</v>
+      </c>
+      <c r="E55">
+        <v>0.05792617978183588</v>
+      </c>
+      <c r="F55">
+        <v>0.02226712816589952</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1809785299337375</v>
+        <v>-0.1750556737285945</v>
       </c>
       <c r="C56">
-        <v>-0.02703325512728682</v>
+        <v>0.02419836447977239</v>
       </c>
       <c r="D56">
-        <v>0.002440671658721616</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003719120370697701</v>
+      </c>
+      <c r="E56">
+        <v>0.05365743150220217</v>
+      </c>
+      <c r="F56">
+        <v>0.03520996448894219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04535268343147947</v>
+        <v>-0.04462776878559397</v>
       </c>
       <c r="C58">
-        <v>-0.004237236071897998</v>
+        <v>0.0004504558358239558</v>
       </c>
       <c r="D58">
-        <v>0.08707626868607098</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.09278203284474169</v>
+      </c>
+      <c r="E58">
+        <v>0.02517394470108644</v>
+      </c>
+      <c r="F58">
+        <v>-0.04469722822793547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1717396538401981</v>
+        <v>-0.1763450616344497</v>
       </c>
       <c r="C59">
-        <v>-0.02749428902427252</v>
+        <v>0.03007665079224453</v>
       </c>
       <c r="D59">
-        <v>-0.2177227006245087</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2145870404145626</v>
+      </c>
+      <c r="E59">
+        <v>-0.04876390025027066</v>
+      </c>
+      <c r="F59">
+        <v>-0.06143706248464245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2237380737834098</v>
+        <v>-0.2186472603359788</v>
       </c>
       <c r="C60">
-        <v>-0.00811113211474979</v>
+        <v>0.003634360949888925</v>
       </c>
       <c r="D60">
-        <v>0.02063758316060409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01991227347699431</v>
+      </c>
+      <c r="E60">
+        <v>-0.02508701305079883</v>
+      </c>
+      <c r="F60">
+        <v>-0.009595773777724538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0724320679249254</v>
+        <v>-0.06879409055321652</v>
       </c>
       <c r="C61">
-        <v>-0.01528039682459347</v>
+        <v>0.01080534563596724</v>
       </c>
       <c r="D61">
-        <v>0.1240078450494133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1238467530889518</v>
+      </c>
+      <c r="E61">
+        <v>0.03130008720627332</v>
+      </c>
+      <c r="F61">
+        <v>-0.004735235629437652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1716167580036633</v>
+        <v>-0.1672533605146186</v>
       </c>
       <c r="C62">
-        <v>-0.02973632033309751</v>
+        <v>0.02660303555162418</v>
       </c>
       <c r="D62">
-        <v>0.007859457864655164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.01128883511118333</v>
+      </c>
+      <c r="E62">
+        <v>0.066663070222619</v>
+      </c>
+      <c r="F62">
+        <v>0.01898820597282535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04109195777576007</v>
+        <v>-0.04672717359147775</v>
       </c>
       <c r="C63">
-        <v>-0.005674699359598943</v>
+        <v>0.003383581026967594</v>
       </c>
       <c r="D63">
-        <v>0.06641295290552693</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07375207596131751</v>
+      </c>
+      <c r="E63">
+        <v>0.02764855251119477</v>
+      </c>
+      <c r="F63">
+        <v>-0.007587292053146441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.114324891554404</v>
+        <v>-0.111542762123608</v>
       </c>
       <c r="C64">
-        <v>-0.01968210314050657</v>
+        <v>0.01589110677942275</v>
       </c>
       <c r="D64">
-        <v>0.05320773904292436</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05515500647451536</v>
+      </c>
+      <c r="E64">
+        <v>0.0285375163918018</v>
+      </c>
+      <c r="F64">
+        <v>0.0228858634095687</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1500934926748833</v>
+        <v>-0.1558107817941948</v>
       </c>
       <c r="C65">
-        <v>-0.04301345250440981</v>
+        <v>0.04146915666321658</v>
       </c>
       <c r="D65">
-        <v>-0.0500274926266863</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03804893898998522</v>
+      </c>
+      <c r="E65">
+        <v>0.04544709440089407</v>
+      </c>
+      <c r="F65">
+        <v>0.04717837476752881</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1202983545638054</v>
+        <v>-0.1102739149698358</v>
       </c>
       <c r="C66">
-        <v>-0.0199241479541079</v>
+        <v>0.01386830484634478</v>
       </c>
       <c r="D66">
-        <v>0.1519377006482033</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1509049992958274</v>
+      </c>
+      <c r="E66">
+        <v>0.04257978534627071</v>
+      </c>
+      <c r="F66">
+        <v>0.01055833102596066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05946966433800777</v>
+        <v>-0.05236959534682476</v>
       </c>
       <c r="C67">
-        <v>-0.006420782954670355</v>
+        <v>0.004047616559936238</v>
       </c>
       <c r="D67">
-        <v>0.0586061509362971</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05940639242168019</v>
+      </c>
+      <c r="E67">
+        <v>0.01028410071564568</v>
+      </c>
+      <c r="F67">
+        <v>-0.08827315615284782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1229287670524762</v>
+        <v>-0.1287401581819851</v>
       </c>
       <c r="C68">
-        <v>-0.03602488775287268</v>
+        <v>0.04046771383554129</v>
       </c>
       <c r="D68">
-        <v>-0.2588462894800687</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2552182667123415</v>
+      </c>
+      <c r="E68">
+        <v>-0.07116535358626808</v>
+      </c>
+      <c r="F68">
+        <v>0.03439770100121952</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03932572717427384</v>
+        <v>-0.03885216207019129</v>
       </c>
       <c r="C69">
-        <v>-0.00338297609869226</v>
+        <v>0.002374113357378016</v>
       </c>
       <c r="D69">
-        <v>0.01302425933308143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01229199983313816</v>
+      </c>
+      <c r="E69">
+        <v>0.03372918061234507</v>
+      </c>
+      <c r="F69">
+        <v>-0.02435116989160008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06963740918067236</v>
+        <v>-0.07103902395873522</v>
       </c>
       <c r="C70">
-        <v>0.02240956777672031</v>
+        <v>-0.02382560777308394</v>
       </c>
       <c r="D70">
-        <v>0.04172408947837929</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03924924124746861</v>
+      </c>
+      <c r="E70">
+        <v>-0.09003456782721471</v>
+      </c>
+      <c r="F70">
+        <v>-0.3601387160038232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1433919818426967</v>
+        <v>-0.1500345584935532</v>
       </c>
       <c r="C71">
-        <v>-0.04187567854169102</v>
+        <v>0.04606225195238395</v>
       </c>
       <c r="D71">
-        <v>-0.2724153656247812</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2640615227124306</v>
+      </c>
+      <c r="E71">
+        <v>-0.08294298702590089</v>
+      </c>
+      <c r="F71">
+        <v>0.0363131764927999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1390272155944644</v>
+        <v>-0.1453261391635947</v>
       </c>
       <c r="C72">
-        <v>-0.0335384907567011</v>
+        <v>0.03213847947907257</v>
       </c>
       <c r="D72">
-        <v>0.01457690547662729</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.009562030637655723</v>
+      </c>
+      <c r="E72">
+        <v>0.05905265466419307</v>
+      </c>
+      <c r="F72">
+        <v>0.02417274695517827</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.195308532441579</v>
+        <v>-0.1998863334274015</v>
       </c>
       <c r="C73">
-        <v>-0.02187127232505152</v>
+        <v>0.01671042592922659</v>
       </c>
       <c r="D73">
-        <v>0.0143055746628026</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01949631168710647</v>
+      </c>
+      <c r="E73">
+        <v>0.06866349250840473</v>
+      </c>
+      <c r="F73">
+        <v>0.008140114061853323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0886832396582572</v>
+        <v>-0.08860092304609714</v>
       </c>
       <c r="C74">
-        <v>-0.01671155242575591</v>
+        <v>0.01460822471011518</v>
       </c>
       <c r="D74">
-        <v>0.01915222259029104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02289502613806603</v>
+      </c>
+      <c r="E74">
+        <v>0.05633629975333312</v>
+      </c>
+      <c r="F74">
+        <v>0.04529563806478347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1285706322686685</v>
+        <v>-0.1211396027540585</v>
       </c>
       <c r="C75">
-        <v>-0.03489287664684226</v>
+        <v>0.0315110822428526</v>
       </c>
       <c r="D75">
-        <v>0.03319828109483637</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03580440318122245</v>
+      </c>
+      <c r="E75">
+        <v>0.07506017332802067</v>
+      </c>
+      <c r="F75">
+        <v>0.00126752976607389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07693493773827598</v>
+        <v>-0.09097005398740522</v>
       </c>
       <c r="C77">
-        <v>-0.01474277296894075</v>
+        <v>0.01130173582680738</v>
       </c>
       <c r="D77">
-        <v>0.1204339134189772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1192443538666721</v>
+      </c>
+      <c r="E77">
+        <v>0.0451170565189053</v>
+      </c>
+      <c r="F77">
+        <v>0.04143483749661752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.0958708894991553</v>
+        <v>-0.09809612637481847</v>
       </c>
       <c r="C78">
-        <v>-0.04329299788954011</v>
+        <v>0.04030600316648884</v>
       </c>
       <c r="D78">
-        <v>0.1372836826358686</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1300173408966506</v>
+      </c>
+      <c r="E78">
+        <v>0.04461943892539052</v>
+      </c>
+      <c r="F78">
+        <v>0.04166756694959491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1701867848601461</v>
+        <v>-0.1654338978844428</v>
       </c>
       <c r="C79">
-        <v>-0.0332189343002301</v>
+        <v>0.02952568828213736</v>
       </c>
       <c r="D79">
-        <v>0.0232260312294773</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02624871203476305</v>
+      </c>
+      <c r="E79">
+        <v>0.04489460448959186</v>
+      </c>
+      <c r="F79">
+        <v>0.002928149739977387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07887247533567951</v>
+        <v>-0.07700367256831515</v>
       </c>
       <c r="C80">
-        <v>-0.004023750400933693</v>
+        <v>0.001754183260674252</v>
       </c>
       <c r="D80">
-        <v>0.05122190202215275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05187603678161624</v>
+      </c>
+      <c r="E80">
+        <v>0.04455285776421185</v>
+      </c>
+      <c r="F80">
+        <v>-0.05262440200388344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.116837001494758</v>
+        <v>-0.1108908796427357</v>
       </c>
       <c r="C81">
-        <v>-0.03661514429904272</v>
+        <v>0.03470539591346897</v>
       </c>
       <c r="D81">
-        <v>0.01048777776847113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01390865849437634</v>
+      </c>
+      <c r="E81">
+        <v>0.06746445275155941</v>
+      </c>
+      <c r="F81">
+        <v>-0.007085518669246724</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1621918832861086</v>
+        <v>-0.1603753797615662</v>
       </c>
       <c r="C82">
-        <v>-0.03273705652458533</v>
+        <v>0.02980388885392231</v>
       </c>
       <c r="D82">
-        <v>0.004358626637259783</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004341066579933382</v>
+      </c>
+      <c r="E82">
+        <v>0.06889350686909147</v>
+      </c>
+      <c r="F82">
+        <v>0.07242689685210947</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05696016337678154</v>
+        <v>-0.05240610167982809</v>
       </c>
       <c r="C83">
-        <v>-0.006334467256128039</v>
+        <v>0.00413837281074455</v>
       </c>
       <c r="D83">
-        <v>0.04822167752826335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04611505725975</v>
+      </c>
+      <c r="E83">
+        <v>-0.01004452697496066</v>
+      </c>
+      <c r="F83">
+        <v>-0.0235510865485503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05364956500687521</v>
+        <v>-0.05057868836938644</v>
       </c>
       <c r="C84">
-        <v>-0.01312995434871924</v>
+        <v>0.01066685354138989</v>
       </c>
       <c r="D84">
-        <v>0.07558366276792541</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07533924569730434</v>
+      </c>
+      <c r="E84">
+        <v>0.01093812426066337</v>
+      </c>
+      <c r="F84">
+        <v>0.002780576265650062</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.140107766109116</v>
+        <v>-0.1345964737290478</v>
       </c>
       <c r="C85">
-        <v>-0.03612231127095572</v>
+        <v>0.03327681419351774</v>
       </c>
       <c r="D85">
-        <v>0.01550590547078927</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01745140843783238</v>
+      </c>
+      <c r="E85">
+        <v>0.06078097982659079</v>
+      </c>
+      <c r="F85">
+        <v>0.04615231444998801</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08404953509859894</v>
+        <v>-0.08259582634696687</v>
       </c>
       <c r="C86">
-        <v>0.004408936578920836</v>
+        <v>-0.006397873662471988</v>
       </c>
       <c r="D86">
-        <v>0.04247197385755969</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06747435949657341</v>
+      </c>
+      <c r="E86">
+        <v>-0.01443994538807338</v>
+      </c>
+      <c r="F86">
+        <v>-0.8075567782677001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.0869198939127411</v>
+        <v>-0.08754793556574583</v>
       </c>
       <c r="C87">
-        <v>-0.02697641909761098</v>
+        <v>0.02273782386397256</v>
       </c>
       <c r="D87">
-        <v>0.08081462567765743</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08465603941073767</v>
+      </c>
+      <c r="E87">
+        <v>-0.07902652312088569</v>
+      </c>
+      <c r="F87">
+        <v>0.08541985543707543</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06224290961946538</v>
+        <v>-0.0610537572046077</v>
       </c>
       <c r="C88">
-        <v>-0.00680902469007101</v>
+        <v>0.004479869384704068</v>
       </c>
       <c r="D88">
-        <v>0.06565688138317559</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.06164161667902019</v>
+      </c>
+      <c r="E88">
+        <v>0.0258455459111889</v>
+      </c>
+      <c r="F88">
+        <v>0.001585419518365104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1311081226180981</v>
+        <v>-0.1359858546773101</v>
       </c>
       <c r="C89">
-        <v>-0.01595766483352386</v>
+        <v>0.02027840091039558</v>
       </c>
       <c r="D89">
-        <v>-0.2325176936419378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2364974259910545</v>
+      </c>
+      <c r="E89">
+        <v>-0.08609832960630755</v>
+      </c>
+      <c r="F89">
+        <v>0.03038246549758872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1552003925898835</v>
+        <v>-0.1654045754628365</v>
       </c>
       <c r="C90">
-        <v>-0.0384233201067157</v>
+        <v>0.04324292518344702</v>
       </c>
       <c r="D90">
-        <v>-0.2586729981922301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2596548224251495</v>
+      </c>
+      <c r="E90">
+        <v>-0.1202047215639804</v>
+      </c>
+      <c r="F90">
+        <v>0.03725633645458025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1261771853893109</v>
+        <v>-0.1212803991650326</v>
       </c>
       <c r="C91">
-        <v>-0.02680637905678408</v>
+        <v>0.02508722427644568</v>
       </c>
       <c r="D91">
-        <v>-0.01264516254492476</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01031229561613143</v>
+      </c>
+      <c r="E91">
+        <v>0.07000474938093468</v>
+      </c>
+      <c r="F91">
+        <v>-0.03590355826730564</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1543446509612173</v>
+        <v>-0.1574848118423768</v>
       </c>
       <c r="C92">
-        <v>-0.02921020436026998</v>
+        <v>0.03360868146505373</v>
       </c>
       <c r="D92">
-        <v>-0.2888240950679186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2902665892534592</v>
+      </c>
+      <c r="E92">
+        <v>-0.08629323257286801</v>
+      </c>
+      <c r="F92">
+        <v>0.02014328955885693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1585096401118473</v>
+        <v>-0.1672369945712901</v>
       </c>
       <c r="C93">
-        <v>-0.03409941008549639</v>
+        <v>0.03780202216681932</v>
       </c>
       <c r="D93">
-        <v>-0.2509626340080591</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2531199917434498</v>
+      </c>
+      <c r="E93">
+        <v>-0.05247506993755981</v>
+      </c>
+      <c r="F93">
+        <v>0.02472483703454379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1268220540765891</v>
+        <v>-0.119789148443906</v>
       </c>
       <c r="C94">
-        <v>-0.03048967573946929</v>
+        <v>0.0267763289564904</v>
       </c>
       <c r="D94">
-        <v>0.04704746299600073</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04827444375042075</v>
+      </c>
+      <c r="E94">
+        <v>0.06950256217757377</v>
+      </c>
+      <c r="F94">
+        <v>-0.0004841076100305622</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1262029958536258</v>
+        <v>-0.1285936767157626</v>
       </c>
       <c r="C95">
-        <v>-0.0130309580993628</v>
+        <v>0.007824501460731232</v>
       </c>
       <c r="D95">
-        <v>0.1056469618598377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1140118507929509</v>
+      </c>
+      <c r="E95">
+        <v>0.05122087678280241</v>
+      </c>
+      <c r="F95">
+        <v>-0.02222938773054806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1633310419577544</v>
+        <v>-0.1470005247376189</v>
       </c>
       <c r="C96">
-        <v>0.9809475818248471</v>
+        <v>-0.9826816109547123</v>
       </c>
       <c r="D96">
-        <v>-0.02875408864986082</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04954779208062035</v>
+      </c>
+      <c r="E96">
+        <v>0.05400804347929426</v>
+      </c>
+      <c r="F96">
+        <v>0.03725035872153718</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1935571334061821</v>
+        <v>-0.1950947739793533</v>
       </c>
       <c r="C97">
-        <v>-0.005010138703985855</v>
+        <v>0.0007449425350799713</v>
       </c>
       <c r="D97">
-        <v>-0.01521527441661903</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0206053931107427</v>
+      </c>
+      <c r="E97">
+        <v>-0.003247102053628437</v>
+      </c>
+      <c r="F97">
+        <v>-0.1811695775612864</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1931296984552269</v>
+        <v>-0.200224808209594</v>
       </c>
       <c r="C98">
-        <v>-0.01778870488724046</v>
+        <v>0.01277395287459406</v>
       </c>
       <c r="D98">
-        <v>0.0004966235162430593</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.00572536719421596</v>
+      </c>
+      <c r="E98">
+        <v>-0.1029257545525052</v>
+      </c>
+      <c r="F98">
+        <v>-0.05921630797600803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05751336229231816</v>
+        <v>-0.05709098690392971</v>
       </c>
       <c r="C99">
-        <v>0.0003190492300146285</v>
+        <v>-0.002449046793371071</v>
       </c>
       <c r="D99">
-        <v>0.0501837974728469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.05409361163269775</v>
+      </c>
+      <c r="E99">
+        <v>0.01088533691288882</v>
+      </c>
+      <c r="F99">
+        <v>-0.004872666123722212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1240797429983336</v>
+        <v>-0.1169675782942447</v>
       </c>
       <c r="C100">
-        <v>0.03338833404312123</v>
+        <v>-0.04038065029693399</v>
       </c>
       <c r="D100">
-        <v>0.3128823687647331</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.2959820752141796</v>
+      </c>
+      <c r="E100">
+        <v>-0.8988442680485089</v>
+      </c>
+      <c r="F100">
+        <v>0.09445848355130332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02557237606008764</v>
+        <v>-0.02777262646289962</v>
       </c>
       <c r="C101">
-        <v>-0.009854792883265026</v>
+        <v>0.009252664939376511</v>
       </c>
       <c r="D101">
-        <v>0.03656283055239278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03800646463071212</v>
+      </c>
+      <c r="E101">
+        <v>0.009372540996308236</v>
+      </c>
+      <c r="F101">
+        <v>-0.01977639631232133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
